--- a/pearson_tables/t2m_netherlands-3-3.xlsx
+++ b/pearson_tables/t2m_netherlands-3-3.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6187938704202892</v>
+        <v>-0.5871232612860219</v>
       </c>
       <c r="C2" t="n">
-        <v>0.653443291914367</v>
+        <v>-0.7413052565746122</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6651750560640618</v>
+        <v>-0.6779821139628318</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6884149106130999</v>
+        <v>0.6848673230507893</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7127303115118725</v>
+        <v>0.6903358201961617</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6957285638100548</v>
+        <v>0.6978903635809913</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6456250822437214</v>
+        <v>0.6476181060054425</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7351920981538204</v>
+        <v>-0.7068555247253859</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7183885765188071</v>
+        <v>0.7256394420805552</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8012470272219925</v>
+        <v>-0.8036534091992149</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5771905163381977</v>
+        <v>-0.5697401020314303</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7314329784012679</v>
+        <v>0.7061685519639862</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5181548937390797</v>
+        <v>0.5138994230556155</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6271985198275534</v>
+        <v>-0.6515289144268095</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6715185517012283</v>
+        <v>-0.6137815080324943</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.75882988956206</v>
+        <v>-0.7696509785612776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.685792781976072</v>
+        <v>0.6610223880034173</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7170831678967649</v>
+        <v>0.7415631069330682</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7179277565014587</v>
+        <v>0.6805028901862737</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5870928709311024</v>
+        <v>-0.6126335702838159</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.621153452796272</v>
+        <v>-0.618224751893086</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6982352460099962</v>
+        <v>0.6972657875223104</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7731095133060638</v>
+        <v>0.7828012631545163</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5990459566753148</v>
+        <v>-0.6113732004916022</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-3-3.xlsx
+++ b/pearson_tables/t2m_netherlands-3-3.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5871232612860219</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7413052565746122</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6779821139628318</v>
+        <v>0.680241283951419</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6848673230507893</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6903358201961617</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6978903635809913</v>
+        <v>-0.7307375842165882</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6476181060054425</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7068555247253859</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7256394420805552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8036534091992149</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5697401020314303</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7061685519639862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5138994230556155</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6515289144268095</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6137815080324943</v>
+        <v>-0.6754520409216147</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7696509785612776</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6610223880034173</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7415631069330682</v>
+        <v>0.7752585287733935</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6805028901862737</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6126335702838159</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.618224751893086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6972657875223104</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7828012631545163</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6113732004916022</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
